--- a/biology/Zoologie/Roy_Chapman_Andrews/Roy_Chapman_Andrews.xlsx
+++ b/biology/Zoologie/Roy_Chapman_Andrews/Roy_Chapman_Andrews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roy Chapman Andrews (né le 26 janvier 1884 dans le Wisconsin et mort le 11 mars 1960 à Carmel) est un explorateur, aventurier, paléontologue et naturaliste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tenté jeune par l'exploration et la collecte des spécimens, il se forme seul à la taxidermie. Il finance alors ses études au College Beloit et postule à un poste au Muséum d'histoire naturelle de Washington qu'il n'obtient pas. Il étudie en parallèle à l'université Columbia et collecte pour le muséum de nombreux spécimens.
 Entre 1910 et 1913, il voyage en Asie du Sud-Est et dans l'Arctique, collectant lézards et serpents, observant les mammifères marins et filmant les baleines. En 1914, il se marie et part avec son épouse, Yvette Borup dans une série d'expéditions en Chine, visitant essentiellement le Yunan.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monographs of the Pacific Cetacea (1914–16)
 Whale Hunting With Gun and Camera (1916)
@@ -598,9 +614,11 @@
           <t>Relation avec Indiana Jones</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que de nombreuses sources[1] affirment qu'Andrews a été l'inspiration pour Indiana Jones, ni George Lucas, ni les autres créateurs de ces films ne l'ont jamais confirmé. La transcription des conférences de l'histoire du film ne fait pas mention de lui[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que de nombreuses sources affirment qu'Andrews a été l'inspiration pour Indiana Jones, ni George Lucas, ni les autres créateurs de ces films ne l'ont jamais confirmé. La transcription des conférences de l'histoire du film ne fait pas mention de lui.
 Une analyse de la Smithsonian Channel conclut que le lien est indirect, avec Andrews (et d'autres explorateurs) ayant servi de modèle pour les héros de films d'aventure des années 1940 et 1950, qui ont à leur tour inspiré Lucas et ses comparses.
 </t>
         </is>
